--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3a-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3a-Nrp2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Sema3a</t>
+  </si>
+  <si>
+    <t>Nrp2</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema3a</t>
-  </si>
-  <si>
-    <t>Nrp2</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.072431333333333</v>
+        <v>0.7828983333333334</v>
       </c>
       <c r="H2">
-        <v>3.217294</v>
+        <v>2.348695</v>
       </c>
       <c r="I2">
-        <v>0.2939553384953704</v>
+        <v>0.1255011010959021</v>
       </c>
       <c r="J2">
-        <v>0.3390161022675017</v>
+        <v>0.1633296112897183</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N2">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O2">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P2">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q2">
-        <v>47.32815424234089</v>
+        <v>28.56435624133889</v>
       </c>
       <c r="R2">
-        <v>425.953388181068</v>
+        <v>257.07920617205</v>
       </c>
       <c r="S2">
-        <v>0.1297930346246645</v>
+        <v>0.05347149754013943</v>
       </c>
       <c r="T2">
-        <v>0.1546881942529321</v>
+        <v>0.07063365183926414</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.072431333333333</v>
+        <v>0.7828983333333334</v>
       </c>
       <c r="H3">
-        <v>3.217294</v>
+        <v>2.348695</v>
       </c>
       <c r="I3">
-        <v>0.2939553384953704</v>
+        <v>0.1255011010959021</v>
       </c>
       <c r="J3">
-        <v>0.3390161022675017</v>
+        <v>0.1633296112897183</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>44.79778</v>
       </c>
       <c r="O3">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P3">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q3">
-        <v>16.01418097859111</v>
+        <v>11.69070243301111</v>
       </c>
       <c r="R3">
-        <v>144.12762880732</v>
+        <v>105.2163218971</v>
       </c>
       <c r="S3">
-        <v>0.04391739292423996</v>
+        <v>0.02188459495140209</v>
       </c>
       <c r="T3">
-        <v>0.05234103838771184</v>
+        <v>0.02890865099262043</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.072431333333333</v>
+        <v>0.7828983333333334</v>
       </c>
       <c r="H4">
-        <v>3.217294</v>
+        <v>2.348695</v>
       </c>
       <c r="I4">
-        <v>0.2939553384953704</v>
+        <v>0.1255011010959021</v>
       </c>
       <c r="J4">
-        <v>0.3390161022675017</v>
+        <v>0.1633296112897183</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N4">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O4">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P4">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q4">
-        <v>14.59604926009511</v>
+        <v>7.579100713927223</v>
       </c>
       <c r="R4">
-        <v>131.364443340856</v>
+        <v>68.21190642534501</v>
       </c>
       <c r="S4">
-        <v>0.04002829937754046</v>
+        <v>0.01418781721377357</v>
       </c>
       <c r="T4">
-        <v>0.04770599106210323</v>
+        <v>0.01874152375636248</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.072431333333333</v>
+        <v>0.7828983333333334</v>
       </c>
       <c r="H5">
-        <v>3.217294</v>
+        <v>2.348695</v>
       </c>
       <c r="I5">
-        <v>0.2939553384953704</v>
+        <v>0.1255011010959021</v>
       </c>
       <c r="J5">
-        <v>0.3390161022675017</v>
+        <v>0.1633296112897183</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N5">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O5">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P5">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q5">
-        <v>10.39200707930833</v>
+        <v>2.975005837683334</v>
       </c>
       <c r="R5">
-        <v>62.35204247585</v>
+        <v>17.8500350261</v>
       </c>
       <c r="S5">
-        <v>0.02849910705914974</v>
+        <v>0.00556910913683971</v>
       </c>
       <c r="T5">
-        <v>0.02264361577157199</v>
+        <v>0.004904376274246077</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.072431333333333</v>
+        <v>0.7828983333333334</v>
       </c>
       <c r="H6">
-        <v>3.217294</v>
+        <v>2.348695</v>
       </c>
       <c r="I6">
-        <v>0.2939553384953704</v>
+        <v>0.1255011010959021</v>
       </c>
       <c r="J6">
-        <v>0.3390161022675017</v>
+        <v>0.1633296112897183</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.584752</v>
+        <v>20.734808</v>
       </c>
       <c r="N6">
-        <v>52.754256</v>
+        <v>62.204424</v>
       </c>
       <c r="O6">
-        <v>0.1759366057935712</v>
+        <v>0.242133989171347</v>
       </c>
       <c r="P6">
-        <v>0.1818121982434553</v>
+        <v>0.245769325661477</v>
       </c>
       <c r="Q6">
-        <v>18.858439033696</v>
+        <v>16.23324662518667</v>
       </c>
       <c r="R6">
-        <v>169.725951303264</v>
+        <v>146.09921962668</v>
       </c>
       <c r="S6">
-        <v>0.05171750450977577</v>
+        <v>0.03038808225374728</v>
       </c>
       <c r="T6">
-        <v>0.06163726279318255</v>
+        <v>0.04014140842722523</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>3.36251</v>
       </c>
       <c r="I7">
-        <v>0.307223326573222</v>
+        <v>0.1796736943051276</v>
       </c>
       <c r="J7">
-        <v>0.35431795603246</v>
+        <v>0.2338308938613957</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N7">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O7">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P7">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q7">
-        <v>49.46436101935778</v>
+        <v>40.89417038187778</v>
       </c>
       <c r="R7">
-        <v>445.17924917422</v>
+        <v>368.0475334369</v>
       </c>
       <c r="S7">
-        <v>0.1356513818307498</v>
+        <v>0.07655248774050877</v>
       </c>
       <c r="T7">
-        <v>0.1616702110709891</v>
+        <v>0.1011226918122805</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>3.36251</v>
       </c>
       <c r="I8">
-        <v>0.307223326573222</v>
+        <v>0.1796736943051276</v>
       </c>
       <c r="J8">
-        <v>0.35431795603246</v>
+        <v>0.2338308938613957</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>44.79778</v>
       </c>
       <c r="O8">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P8">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q8">
         <v>16.73699813642223</v>
@@ -948,10 +948,10 @@
         <v>150.6329832278</v>
       </c>
       <c r="S8">
-        <v>0.04589965134727697</v>
+        <v>0.03133108784667189</v>
       </c>
       <c r="T8">
-        <v>0.05470350704320618</v>
+        <v>0.04138708008029827</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>3.36251</v>
       </c>
       <c r="I9">
-        <v>0.307223326573222</v>
+        <v>0.1796736943051276</v>
       </c>
       <c r="J9">
-        <v>0.35431795603246</v>
+        <v>0.2338308938613957</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N9">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O9">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P9">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q9">
-        <v>15.25485752858222</v>
+        <v>10.85062212913444</v>
       </c>
       <c r="R9">
-        <v>137.29371775724</v>
+        <v>97.65559916221001</v>
       </c>
       <c r="S9">
-        <v>0.04183501941071396</v>
+        <v>0.02031199336631013</v>
       </c>
       <c r="T9">
-        <v>0.04985925190742058</v>
+        <v>0.02683130889536803</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>3.36251</v>
       </c>
       <c r="I10">
-        <v>0.307223326573222</v>
+        <v>0.1796736943051276</v>
       </c>
       <c r="J10">
-        <v>0.35431795603246</v>
+        <v>0.2338308938613957</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N10">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O10">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P10">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q10">
-        <v>10.86106141504167</v>
+        <v>4.259168124966667</v>
       </c>
       <c r="R10">
-        <v>65.16636849025001</v>
+        <v>25.5550087498</v>
       </c>
       <c r="S10">
-        <v>0.02978544468657872</v>
+        <v>0.007973017000383147</v>
       </c>
       <c r="T10">
-        <v>0.02366565954745464</v>
+        <v>0.007021351970313377</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>3.36251</v>
       </c>
       <c r="I11">
-        <v>0.307223326573222</v>
+        <v>0.1796736943051276</v>
       </c>
       <c r="J11">
-        <v>0.35431795603246</v>
+        <v>0.2338308938613957</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>17.584752</v>
+        <v>20.734808</v>
       </c>
       <c r="N11">
-        <v>52.754256</v>
+        <v>62.204424</v>
       </c>
       <c r="O11">
-        <v>0.1759366057935712</v>
+        <v>0.242133989171347</v>
       </c>
       <c r="P11">
-        <v>0.1818121982434553</v>
+        <v>0.245769325661477</v>
       </c>
       <c r="Q11">
-        <v>19.70963481584</v>
+        <v>23.24033308269334</v>
       </c>
       <c r="R11">
-        <v>177.38671334256</v>
+        <v>209.16299774424</v>
       </c>
       <c r="S11">
-        <v>0.05405182929790257</v>
+        <v>0.04350510835125368</v>
       </c>
       <c r="T11">
-        <v>0.06441932646338951</v>
+        <v>0.05746846110313562</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.4547475</v>
+        <v>4.334444</v>
       </c>
       <c r="H12">
-        <v>2.909495</v>
+        <v>8.668888000000001</v>
       </c>
       <c r="I12">
-        <v>0.3987488806939563</v>
+        <v>0.6948252045989703</v>
       </c>
       <c r="J12">
-        <v>0.3065823808662761</v>
+        <v>0.6028394948488859</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>44.13164066666667</v>
+        <v>36.48539666666667</v>
       </c>
       <c r="N12">
-        <v>132.394922</v>
+        <v>109.45619</v>
       </c>
       <c r="O12">
-        <v>0.4415399811720331</v>
+        <v>0.4260639713374229</v>
       </c>
       <c r="P12">
-        <v>0.4562856844211927</v>
+        <v>0.4324607845540777</v>
       </c>
       <c r="Q12">
-        <v>64.20039393073168</v>
+        <v>158.1439086694533</v>
       </c>
       <c r="R12">
-        <v>385.2023635843901</v>
+        <v>948.8634520167202</v>
       </c>
       <c r="S12">
-        <v>0.1760635732739788</v>
+        <v>0.2960399860567747</v>
       </c>
       <c r="T12">
-        <v>0.1398891514850476</v>
+        <v>0.260704440902533</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.4547475</v>
+        <v>4.334444</v>
       </c>
       <c r="H13">
-        <v>2.909495</v>
+        <v>8.668888000000001</v>
       </c>
       <c r="I13">
-        <v>0.3987488806939563</v>
+        <v>0.6948252045989703</v>
       </c>
       <c r="J13">
-        <v>0.3065823808662761</v>
+        <v>0.6028394948488859</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>44.79778</v>
       </c>
       <c r="O13">
-        <v>0.1494015830739255</v>
+        <v>0.1743777127077069</v>
       </c>
       <c r="P13">
-        <v>0.1543910098595022</v>
+        <v>0.1769957741547643</v>
       </c>
       <c r="Q13">
-        <v>21.72315282018334</v>
+        <v>64.72448957810668</v>
       </c>
       <c r="R13">
-        <v>130.3389169211</v>
+        <v>388.3469374686401</v>
       </c>
       <c r="S13">
-        <v>0.05957371402463291</v>
+        <v>0.1211620299096329</v>
       </c>
       <c r="T13">
-        <v>0.04733356338707488</v>
+        <v>0.1067000430818456</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.4547475</v>
+        <v>4.334444</v>
       </c>
       <c r="H14">
-        <v>2.909495</v>
+        <v>8.668888000000001</v>
       </c>
       <c r="I14">
-        <v>0.3987488806939563</v>
+        <v>0.6948252045989703</v>
       </c>
       <c r="J14">
-        <v>0.3065823808662761</v>
+        <v>0.6028394948488859</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.61024133333333</v>
+        <v>9.680823666666667</v>
       </c>
       <c r="N14">
-        <v>40.830724</v>
+        <v>29.042471</v>
       </c>
       <c r="O14">
-        <v>0.1361713639304118</v>
+        <v>0.1130493445068016</v>
       </c>
       <c r="P14">
-        <v>0.1407189532975654</v>
+        <v>0.1147466378470605</v>
       </c>
       <c r="Q14">
-        <v>19.79946455406333</v>
+        <v>41.96098805704134</v>
       </c>
       <c r="R14">
-        <v>118.79678732438</v>
+        <v>251.765928342248</v>
       </c>
       <c r="S14">
-        <v>0.05429817894982106</v>
+        <v>0.07854953392671793</v>
       </c>
       <c r="T14">
-        <v>0.04314195173497792</v>
+        <v>0.06917380519533002</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.4547475</v>
+        <v>4.334444</v>
       </c>
       <c r="H15">
-        <v>2.909495</v>
+        <v>8.668888000000001</v>
       </c>
       <c r="I15">
-        <v>0.3987488806939563</v>
+        <v>0.6948252045989703</v>
       </c>
       <c r="J15">
-        <v>0.3065823808662761</v>
+        <v>0.6028394948488859</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>9.690137500000001</v>
+        <v>3.79999</v>
       </c>
       <c r="N15">
-        <v>19.380275</v>
+        <v>7.59998</v>
       </c>
       <c r="O15">
-        <v>0.09695046603005844</v>
+        <v>0.04437498227672168</v>
       </c>
       <c r="P15">
-        <v>0.06679215417828435</v>
+        <v>0.0300274777826206</v>
       </c>
       <c r="Q15">
-        <v>14.09670330278125</v>
+        <v>16.47084385556</v>
       </c>
       <c r="R15">
-        <v>56.38681321112501</v>
+        <v>65.88337542224001</v>
       </c>
       <c r="S15">
-        <v>0.03865888981224324</v>
+        <v>0.03083285613949882</v>
       </c>
       <c r="T15">
-        <v>0.02047729765116581</v>
+        <v>0.01810174953806115</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.4547475</v>
+        <v>4.334444</v>
       </c>
       <c r="H16">
-        <v>2.909495</v>
+        <v>8.668888000000001</v>
       </c>
       <c r="I16">
-        <v>0.3987488806939563</v>
+        <v>0.6948252045989703</v>
       </c>
       <c r="J16">
-        <v>0.3065823808662761</v>
+        <v>0.6028394948488859</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>17.584752</v>
+        <v>20.734808</v>
       </c>
       <c r="N16">
-        <v>52.754256</v>
+        <v>62.204424</v>
       </c>
       <c r="O16">
-        <v>0.1759366057935712</v>
+        <v>0.242133989171347</v>
       </c>
       <c r="P16">
-        <v>0.1818121982434553</v>
+        <v>0.245769325661477</v>
       </c>
       <c r="Q16">
-        <v>25.58137401012</v>
+        <v>89.87386412675201</v>
       </c>
       <c r="R16">
-        <v>153.48824406072</v>
+        <v>539.2431847605121</v>
       </c>
       <c r="S16">
-        <v>0.07015452463328035</v>
+        <v>0.1682407985663461</v>
       </c>
       <c r="T16">
-        <v>0.05574041660800992</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.0002643333333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.000793</v>
-      </c>
-      <c r="I17">
-        <v>7.245423745135779E-05</v>
-      </c>
-      <c r="J17">
-        <v>8.356083376220166E-05</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>44.13164066666667</v>
-      </c>
-      <c r="N17">
-        <v>132.394922</v>
-      </c>
-      <c r="O17">
-        <v>0.4415399811720331</v>
-      </c>
-      <c r="P17">
-        <v>0.4562856844211927</v>
-      </c>
-      <c r="Q17">
-        <v>0.01166546368288889</v>
-      </c>
-      <c r="R17">
-        <v>0.104989173146</v>
-      </c>
-      <c r="S17">
-        <v>3.199144264010654E-05</v>
-      </c>
-      <c r="T17">
-        <v>3.812761222399169E-05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.0002643333333333333</v>
-      </c>
-      <c r="H18">
-        <v>0.000793</v>
-      </c>
-      <c r="I18">
-        <v>7.245423745135779E-05</v>
-      </c>
-      <c r="J18">
-        <v>8.356083376220166E-05</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>14.93259333333333</v>
-      </c>
-      <c r="N18">
-        <v>44.79778</v>
-      </c>
-      <c r="O18">
-        <v>0.1494015830739255</v>
-      </c>
-      <c r="P18">
-        <v>0.1543910098595022</v>
-      </c>
-      <c r="Q18">
-        <v>0.003947182171111111</v>
-      </c>
-      <c r="R18">
-        <v>0.03552463954</v>
-      </c>
-      <c r="S18">
-        <v>1.082477777564695E-05</v>
-      </c>
-      <c r="T18">
-        <v>1.29010415092483E-05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.0002643333333333333</v>
-      </c>
-      <c r="H19">
-        <v>0.000793</v>
-      </c>
-      <c r="I19">
-        <v>7.245423745135779E-05</v>
-      </c>
-      <c r="J19">
-        <v>8.356083376220166E-05</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>13.61024133333333</v>
-      </c>
-      <c r="N19">
-        <v>40.830724</v>
-      </c>
-      <c r="O19">
-        <v>0.1361713639304118</v>
-      </c>
-      <c r="P19">
-        <v>0.1407189532975654</v>
-      </c>
-      <c r="Q19">
-        <v>0.003597640459111111</v>
-      </c>
-      <c r="R19">
-        <v>0.032378764132</v>
-      </c>
-      <c r="S19">
-        <v>9.866192336289312E-06</v>
-      </c>
-      <c r="T19">
-        <v>1.175859306368888E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.0002643333333333333</v>
-      </c>
-      <c r="H20">
-        <v>0.000793</v>
-      </c>
-      <c r="I20">
-        <v>7.245423745135779E-05</v>
-      </c>
-      <c r="J20">
-        <v>8.356083376220166E-05</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>9.690137500000001</v>
-      </c>
-      <c r="N20">
-        <v>19.380275</v>
-      </c>
-      <c r="O20">
-        <v>0.09695046603005844</v>
-      </c>
-      <c r="P20">
-        <v>0.06679215417828435</v>
-      </c>
-      <c r="Q20">
-        <v>0.002561426345833333</v>
-      </c>
-      <c r="R20">
-        <v>0.015368558075</v>
-      </c>
-      <c r="S20">
-        <v>7.024472086761652E-06</v>
-      </c>
-      <c r="T20">
-        <v>5.581208091910962E-06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.0002643333333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.000793</v>
-      </c>
-      <c r="I21">
-        <v>7.245423745135779E-05</v>
-      </c>
-      <c r="J21">
-        <v>8.356083376220166E-05</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>17.584752</v>
-      </c>
-      <c r="N21">
-        <v>52.754256</v>
-      </c>
-      <c r="O21">
-        <v>0.1759366057935712</v>
-      </c>
-      <c r="P21">
-        <v>0.1818121982434553</v>
-      </c>
-      <c r="Q21">
-        <v>0.004648236112</v>
-      </c>
-      <c r="R21">
-        <v>0.041834125008</v>
-      </c>
-      <c r="S21">
-        <v>1.274735261255334E-05</v>
-      </c>
-      <c r="T21">
-        <v>1.519237887336182E-05</v>
+        <v>0.1481594561311161</v>
       </c>
     </row>
   </sheetData>
